--- a/RabiConfig/Excel/LootReward.xlsx
+++ b/RabiConfig/Excel/LootReward.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -1019,7 +1019,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="17.0833333333333" customWidth="1"/>
   </cols>
@@ -1042,10 +1042,10 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.0833333333333" customWidth="1"/>
     <col min="2" max="2" width="11.8333333333333" customWidth="1"/>
@@ -1129,7 +1129,7 @@
         <v>13</v>
       </c>
       <c r="D8">
-        <v>1.15</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="D9">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1145,7 +1145,7 @@
         <v>15</v>
       </c>
       <c r="D10">
-        <v>1.35</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
